--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1594669.095002859</v>
+        <v>-1596619.32083142</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>155.3441394095695</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>36.72978001943454</v>
+        <v>94.42409150776614</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>173.2913312615459</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>78.94982522926527</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>197.6196793859936</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>281.4828836252076</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.68611524879674</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>160.1743669966221</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.8854510154498</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>127.7140457494429</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>199.0176114973726</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>43.31785343913966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>66.79156359954183</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>226.1460432083421</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>81.4802813037799</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>70.64941602270636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.6200406500436</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>158.0300713929045</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>77.32479443434002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>37.63559668982818</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.86847080694554</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>252.6841021285859</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329028</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
@@ -2776,7 +2776,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593978</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224541</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.700090052298</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3010,10 +3010,10 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.39110820695</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223454</v>
+        <v>1314.280480623803</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830421</v>
+        <v>1314.280480623803</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>956.014782017053</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2605.019613650297</v>
+        <v>2546.742531338851</v>
       </c>
       <c r="T2" t="n">
-        <v>2605.019613650297</v>
+        <v>2328.107864310914</v>
       </c>
       <c r="U2" t="n">
-        <v>2605.019613650297</v>
+        <v>2074.346078949005</v>
       </c>
       <c r="V2" t="n">
-        <v>2273.956726306726</v>
+        <v>2074.346078949005</v>
       </c>
       <c r="W2" t="n">
-        <v>1921.188071036612</v>
+        <v>2074.346078949005</v>
       </c>
       <c r="X2" t="n">
-        <v>1746.146322287575</v>
+        <v>1700.880320687925</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.146322287575</v>
+        <v>1700.880320687925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2080756496231</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>648.3816859950551</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>359.2080756496231</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2080756496231</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2080756496231</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2080756496231</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2080756496231</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.177966138804</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>885.2154491983927</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D5" t="n">
-        <v>526.9497505916422</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E5" t="n">
-        <v>141.161497993398</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F5" t="n">
-        <v>134.2159972441945</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>120.2925931827854</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>120.2925931827854</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,58 +4778,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.345729894536</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>819.4227530162689</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>408.4368482266613</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
         <v>2247.308246834948</v>
@@ -4838,16 +4838,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464692</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464692</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464692</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E10" t="n">
-        <v>97.69838933464692</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084168</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648866</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5106,13 +5106,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.675512255521</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619851</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>315.1013257704656</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>315.1013257704656</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>315.1013257704656</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>315.1013257704656</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1046.700508672316</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1046.700508672316</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1046.700508672316</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.2831413070229</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C16" t="n">
-        <v>609.346958379116</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="D16" t="n">
-        <v>459.2303189667803</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>465.8880938978351</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>318.9981463999247</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9316061372626</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y16" t="n">
-        <v>959.9316061372626</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.9343042381077</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C19" t="n">
-        <v>206.9343042381077</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D19" t="n">
-        <v>206.9343042381077</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E19" t="n">
-        <v>206.9343042381077</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>206.9343042381077</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1339.289935817595</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1050.161297031153</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>795.4768088252661</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118775</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="X19" t="n">
-        <v>609.3753482118775</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="Y19" t="n">
-        <v>388.5827690683474</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>470.1259855045691</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>322.212891922176</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>175.3229444242657</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,49 +5911,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>620.2426249169049</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9521584009096</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9521584009096</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1043.759793676903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>789.0753054710162</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C28" t="n">
         <v>559.344147222967</v>
@@ -6370,13 +6370,13 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,31 +6403,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,7 +6455,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,31 +6640,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525394</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,28 +7330,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,16 +7546,16 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.529509210313</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254956</v>
@@ -7576,19 +7576,19 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7640,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>308.1251096272036</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>226.5862306626923</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>196.4397694169232</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>88.66219485598415</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>99.70200486383575</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>60.09130919023528</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>64.95368134278927</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.84415244067122</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,7 +23710,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.87352781333398</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>63.51748966548476</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>89.16877402903756</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>248.8874016467628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5654918396236</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>33.55325026999142</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.378452907374594e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770926</v>
+        <v>96832.5780377093</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,40 +26320,40 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442719</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442718</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="H2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="I2" t="n">
         <v>97757.26493442721</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="K2" t="n">
         <v>102630.2212330356</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="P2" t="n">
         <v>102630.2212330356</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102630.2212330356</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102630.2212330356</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139160.036972252</v>
+        <v>139160.0369722519</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26497,16 +26497,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-715154.4162124966</v>
+        <v>-715270.3690764031</v>
       </c>
       <c r="C6" t="n">
         <v>-145861.7246168985</v>
@@ -26528,40 +26528,40 @@
         <v>-145861.7246168985</v>
       </c>
       <c r="E6" t="n">
-        <v>-541564.7050780567</v>
+        <v>-541662.1642040284</v>
       </c>
       <c r="F6" t="n">
-        <v>-16404.66860116014</v>
+        <v>-16502.12772713232</v>
       </c>
       <c r="G6" t="n">
-        <v>-16404.66860116016</v>
+        <v>-16502.12772713231</v>
       </c>
       <c r="H6" t="n">
-        <v>-16404.66860116011</v>
+        <v>-16502.12772713233</v>
       </c>
       <c r="I6" t="n">
-        <v>-16404.66860116013</v>
+        <v>-16502.12772713231</v>
       </c>
       <c r="J6" t="n">
-        <v>-270607.0107114865</v>
+        <v>-270607.0107114866</v>
       </c>
       <c r="K6" t="n">
-        <v>-39678.2794151811</v>
+        <v>-39678.27941518103</v>
       </c>
       <c r="L6" t="n">
-        <v>-39678.27941518105</v>
+        <v>-39678.27941518104</v>
       </c>
       <c r="M6" t="n">
         <v>-174479.2946490182</v>
       </c>
       <c r="N6" t="n">
-        <v>-39678.27941518101</v>
+        <v>-39678.27941518107</v>
       </c>
       <c r="O6" t="n">
-        <v>-94183.79151889353</v>
+        <v>-94183.79151889356</v>
       </c>
       <c r="P6" t="n">
-        <v>-39678.27941518106</v>
+        <v>-39678.27941518102</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>137.685932789537</v>
+        <v>79.99162130120537</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>146.085280228819</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>125.3931621165038</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>86.24520099606451</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>51.97117195339681</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>16.6375473211412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>226.9689958712401</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>214.7665585234224</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3383396953023</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>102.1031945837916</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,31 +32637,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382553</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,13 +35735,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35963,13 +35963,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341718</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>515.2185245587283</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36768,10 +36768,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,13 +37002,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37242,10 +37242,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
